--- a/src/data/import2.xlsx
+++ b/src/data/import2.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\classfolder\hk4\tft_pull\main\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\myfolder\tft_repo\tft\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8652"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
-  <si>
-    <t>Tên</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>MSSV</t>
   </si>
@@ -35,136 +32,10 @@
     <t>Lớp</t>
   </si>
   <si>
-    <t>Nguyễn Văn A1</t>
+    <t>CD23TT11</t>
   </si>
   <si>
-    <t>22211TT0001</t>
-  </si>
-  <si>
-    <t>CD22TT1</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A2</t>
-  </si>
-  <si>
-    <t>22211TT0002</t>
-  </si>
-  <si>
-    <t>CD22TT2</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A3</t>
-  </si>
-  <si>
-    <t>22211TT0003</t>
-  </si>
-  <si>
-    <t>CD22TT3</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A4</t>
-  </si>
-  <si>
-    <t>22211TT0004</t>
-  </si>
-  <si>
-    <t>CD22TT4</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A5</t>
-  </si>
-  <si>
-    <t>22211TT0005</t>
-  </si>
-  <si>
-    <t>CD22TT5</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A6</t>
-  </si>
-  <si>
-    <t>22211TT0006</t>
-  </si>
-  <si>
-    <t>CD22TT6</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A7</t>
-  </si>
-  <si>
-    <t>22211TT0007</t>
-  </si>
-  <si>
-    <t>CD22TT7</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A8</t>
-  </si>
-  <si>
-    <t>22211TT0008</t>
-  </si>
-  <si>
-    <t>CD22TT8</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A9</t>
-  </si>
-  <si>
-    <t>22211TT0009</t>
-  </si>
-  <si>
-    <t>CD22TT9</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A10</t>
-  </si>
-  <si>
-    <t>22211TT0010</t>
-  </si>
-  <si>
-    <t>CD22TT10</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A11</t>
-  </si>
-  <si>
-    <t>22211TT0011</t>
-  </si>
-  <si>
-    <t>CD22TT11</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A12</t>
-  </si>
-  <si>
-    <t>22211TT0012</t>
-  </si>
-  <si>
-    <t>CD22TT12</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A13</t>
-  </si>
-  <si>
-    <t>22211TT0013</t>
-  </si>
-  <si>
-    <t>CD22TT13</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A14</t>
-  </si>
-  <si>
-    <t>22211TT0014</t>
-  </si>
-  <si>
-    <t>CD22TT14</t>
-  </si>
-  <si>
-    <t>Lê Việt Khanh</t>
-  </si>
-  <si>
-    <t>22211TT2577</t>
+    <t>23211TT0154</t>
   </si>
 </sst>
 </file>
@@ -493,197 +364,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>